--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3279F47-BC43-47C7-9752-35D78405DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4802293-845C-49A0-BDB0-6CA6E8191269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,15 +158,24 @@
     <t>随机任务煽动叛乱询问</t>
   </si>
   <si>
+    <t>[[red:有件事情我想和你私下商量......]]</t>
+  </si>
+  <si>
     <t>随机任务煽动叛乱时机已到</t>
   </si>
   <si>
+    <t>[[red:关于我们的计划......]]</t>
+  </si>
+  <si>
     <t>随机任务送信城市完成触发器</t>
   </si>
   <si>
     <t>随机任务诬告城主询问</t>
   </si>
   <si>
+    <t>[[red:关于[%str_val:随机任务诬告城主目标名称%]......]]</t>
+  </si>
+  <si>
     <t>随机任务诬告城主首领处指控</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
     <t>随机任务送信</t>
   </si>
   <si>
+    <t>[[red:我这里有一封给你的信。]]</t>
+  </si>
+  <si>
     <t>随机任务城市运输物资完成触发器</t>
   </si>
   <si>
@@ -248,19 +260,7 @@
     <t>[[red:Desejo falar com você em nome de [$player:campname$].]]</t>
   </si>
   <si>
-    <t>[[red:有件事情我想和你私下商量......]]</t>
-  </si>
-  <si>
-    <t>[[red:关于我们的计划......]]</t>
-  </si>
-  <si>
-    <t>[[red:关于[%str_val:随机任务诬告城主目标名称%]......]]</t>
-  </si>
-  <si>
     <t>[[red:Sobre [%str_val:随机任务诬告城主目标名称%]...]]</t>
-  </si>
-  <si>
-    <t>[[red:我这里有一封给你的信。]]</t>
   </si>
   <si>
     <t>[[red:Tenho uma carta para você.]]</t>
@@ -313,7 +313,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,24 @@
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -403,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +431,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -422,10 +482,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -434,38 +494,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -821,876 +863,876 @@
   <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="22.5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="22.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="33.75">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="22.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="33.75">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="33.75">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="33.75">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="33.75">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="33.75">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="33.75">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="33.75">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="33.75">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="33.75">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="33.75">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="33.75">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="33.75">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="33.75">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="33.75">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="33.75">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="33.75">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="33.75">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="33.75">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="33.75">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" ht="33.75">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="33.75">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="33.75">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" ht="33.75">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="33.75">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:3" ht="56.25">
-      <c r="A36" s="15" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="33.75">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="33.75">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="67.5">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="67.5">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="67.5">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="22.5">
+      <c r="A42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="33.75">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="33.75">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="33.75">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" ht="33.75">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="22.5">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" ht="33.75">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" ht="33.75">
+      <c r="A62" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45">
-      <c r="A37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="33.75">
-      <c r="A38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" ht="67.5">
-      <c r="A39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="67.5">
-      <c r="A40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="67.5">
-      <c r="A41" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5">
-      <c r="A42" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" ht="33.75">
-      <c r="A43" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="33.75">
-      <c r="A45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="33.75">
-      <c r="A46" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" spans="1:3" ht="22.5">
-      <c r="A48" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" spans="1:2" ht="33.75">
-      <c r="A51" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:2" ht="33.75">
-      <c r="A62" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="B63" s="3"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="18"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="18"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="18"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="18"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="4"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="18"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="18"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="18"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="18"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="18"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="18"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="18"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="18"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="18"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="4"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="18"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="4"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="4"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="4"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="18"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="4"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="18"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="4"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="18"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="18"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="18"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="4"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="18"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="4"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="18"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="4"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="18"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="4"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="18"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="4"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="18"/>
     </row>
     <row r="124" spans="1:2" ht="15">
-      <c r="A124" s="9"/>
-      <c r="B124" s="4"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="18"/>
     </row>
     <row r="125" spans="1:2" ht="15">
-      <c r="A125" s="9"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="18"/>
     </row>
     <row r="126" spans="1:2" ht="15">
-      <c r="A126" s="9"/>
-      <c r="B126" s="4"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="18"/>
     </row>
     <row r="127" spans="1:2" ht="15">
-      <c r="A127" s="9"/>
-      <c r="B127" s="4"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="18"/>
     </row>
     <row r="128" spans="1:2" ht="15">
-      <c r="A128" s="9"/>
-      <c r="B128" s="4"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="18"/>
     </row>
     <row r="129" spans="1:2" ht="15">
-      <c r="A129" s="9"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="18"/>
     </row>
     <row r="130" spans="1:2" ht="15">
-      <c r="A130" s="9"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="18"/>
     </row>
     <row r="131" spans="1:2" ht="15">
-      <c r="A131" s="9"/>
-      <c r="B131" s="4"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="18"/>
     </row>
     <row r="132" spans="1:2" ht="15">
-      <c r="A132" s="9"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="18"/>
     </row>
     <row r="133" spans="1:2" ht="15">
-      <c r="A133" s="9"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="18"/>
     </row>
     <row r="134" spans="1:2" ht="15">
-      <c r="A134" s="9"/>
-      <c r="B134" s="4"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="18"/>
     </row>
     <row r="135" spans="1:2" ht="15">
-      <c r="A135" s="9"/>
-      <c r="B135" s="4"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="18"/>
     </row>
     <row r="136" spans="1:2" ht="15">
-      <c r="A136" s="9"/>
-      <c r="B136" s="4"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="18"/>
     </row>
     <row r="137" spans="1:2" ht="15">
-      <c r="A137" s="9"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="18"/>
     </row>
     <row r="138" spans="1:2" ht="15">
-      <c r="A138" s="9"/>
-      <c r="B138" s="4"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="18"/>
     </row>
     <row r="139" spans="1:2" ht="15">
-      <c r="A139" s="9"/>
-      <c r="B139" s="4"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="18"/>
     </row>
     <row r="140" spans="1:2" ht="15">
-      <c r="A140" s="9"/>
-      <c r="B140" s="4"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="18"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="18"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="4"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="18"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="4"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="18"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="4"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="18"/>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="18"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="25"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="10"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="10"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="10"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="10"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="10"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="25"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="10"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="10"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="10"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="25"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="10"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="25"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="25"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="25"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="25"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="25"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="25"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="10"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="25"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="10"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="25"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="25"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="25"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="25"/>
     </row>
     <row r="178" spans="1:2" ht="15">
-      <c r="A178" s="9"/>
-      <c r="B178" s="4"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="18"/>
     </row>
     <row r="179" spans="1:2" ht="15">
-      <c r="A179" s="9"/>
-      <c r="B179" s="4"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="18"/>
     </row>
     <row r="180" spans="1:2" ht="15">
-      <c r="A180" s="9"/>
-      <c r="B180" s="4"/>
+      <c r="A180" s="23"/>
+      <c r="B180" s="18"/>
     </row>
     <row r="181" spans="1:2" ht="15">
-      <c r="A181" s="9"/>
-      <c r="B181" s="4"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="18"/>
     </row>
     <row r="182" spans="1:2" ht="15">
-      <c r="A182" s="9"/>
-      <c r="B182" s="4"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="18"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1"/>

--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4802293-845C-49A0-BDB0-6CA6E8191269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086C86D-161E-4035-AD7B-837B0ADA61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,11 +862,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
       <c r="A1" s="26" t="s">

--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_RandomQuests_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1086C86D-161E-4035-AD7B-837B0ADA61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7D219-954A-4055-A367-DAB2C02155E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,19 +251,19 @@
     <t>随机任务护送商队被击溃</t>
   </si>
   <si>
-    <t>[[red:Preciso falar com você em particular...]]</t>
-  </si>
-  <si>
-    <t>[[red:Sobre nosso plano...]]</t>
-  </si>
-  <si>
-    <t>[[red:Desejo falar com você em nome de [$player:campname$].]]</t>
+    <t>[[red:Preciso falar contigo em particular...]]</t>
+  </si>
+  <si>
+    <t>[[red:Sobre nosso plano...]]]</t>
   </si>
   <si>
     <t>[[red:Sobre [%str_val:随机任务诬告城主目标名称%]...]]</t>
   </si>
   <si>
-    <t>[[red:Tenho uma carta para você.]]</t>
+    <t>[[red:Eu, em nome de [$player:campname$], tenho algo para discutir contigo.]]</t>
+  </si>
+  <si>
+    <t>[[red:Eu tenho uma carta para você.]]</t>
   </si>
 </sst>
 </file>
@@ -862,15 +862,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
@@ -884,31 +884,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="22.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="33.75">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,145 +920,145 @@
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="33.75">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="33.75">
+    <row r="9" spans="1:3" ht="22.5">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="33.75">
+    <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="33.75">
+    <row r="11" spans="1:3" ht="22.5">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="33.75">
+    <row r="12" spans="1:3" ht="22.5">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="33.75">
+    <row r="13" spans="1:3" ht="22.5">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="33.75">
+    <row r="14" spans="1:3" ht="22.5">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="33.75">
+    <row r="15" spans="1:3" ht="22.5">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="33.75">
+    <row r="16" spans="1:3" ht="22.5">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="33.75">
+    <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="33.75">
+    <row r="18" spans="1:2" ht="22.5">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="33.75">
+    <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" ht="33.75">
+    <row r="20" spans="1:2" ht="22.5">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="33.75">
+    <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="33.75">
+    <row r="22" spans="1:2" ht="22.5">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="33.75">
+    <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="33.75">
+    <row r="24" spans="1:2" ht="22.5">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="33.75">
+    <row r="25" spans="1:2" ht="22.5">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="33.75">
+    <row r="26" spans="1:2" ht="22.5">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" ht="33.75">
+    <row r="27" spans="1:2" ht="22.5">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" ht="33.75">
+    <row r="28" spans="1:2" ht="22.5">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" ht="33.75">
+    <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="33.75">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="33.75">
+    <row r="31" spans="1:2" ht="22.5">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="33.75">
+    <row r="38" spans="1:3" ht="22.5">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="67.5">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="67.5">
@@ -1146,16 +1146,16 @@
         <v>46</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:3" ht="33.75">
+    <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1172,13 +1172,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="33.75">
+    <row r="45" spans="1:3" ht="22.5">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="33.75">
+    <row r="46" spans="1:3" ht="22.5">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:3" ht="22.5">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="33.75">
+    <row r="51" spans="1:2" ht="22.5">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="33.75">
+    <row r="62" spans="1:2">
       <c r="A62" s="15" t="s">
         <v>68</v>
       </c>
